--- a/media/utils/tmplexcel/misa_baocao_chamcong.xlsx
+++ b/media/utils/tmplexcel/misa_baocao_chamcong.xlsx
@@ -3313,16 +3313,6 @@
     <xf numFmtId="164" fontId="26" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3330,6 +3320,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3340,127 +3331,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="53" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="54" fillId="0" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="53" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="9" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="9" borderId="61" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="54" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="55" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="61" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="56" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="62" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="10" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="9" borderId="43" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="9" borderId="51" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="9" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="43" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="51" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="9" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3504,6 +3384,15 @@
     <xf numFmtId="0" fontId="46" fillId="9" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="43" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="51" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="47" fillId="9" borderId="43" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3515,6 +3404,117 @@
     </xf>
     <xf numFmtId="3" fontId="48" fillId="9" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="45" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="44" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="9" borderId="43" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="9" borderId="51" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="9" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="53" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="59" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="55" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="61" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="56" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="62" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="10" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="53" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="9" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="54" fillId="0" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="9" borderId="54" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="9" borderId="61" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="54" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4146,11 +4146,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="218919296"/>
-        <c:axId val="218921216"/>
+        <c:axId val="303158016"/>
+        <c:axId val="303159936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="218919296"/>
+        <c:axId val="303158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,13 +4193,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218921216"/>
+        <c:crossAx val="303159936"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218921216"/>
+        <c:axId val="303159936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,7 +4265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218919296"/>
+        <c:crossAx val="303158016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4274,7 +4274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4310,6 +4310,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4440,11 +4441,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="375645696"/>
-        <c:axId val="375647616"/>
+        <c:axId val="331888512"/>
+        <c:axId val="331898880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375645696"/>
+        <c:axId val="331888512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,6 +4468,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4486,13 +4488,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375647616"/>
+        <c:crossAx val="331898880"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375647616"/>
+        <c:axId val="331898880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,6 +4537,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4557,13 +4560,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375645696"/>
+        <c:crossAx val="331888512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4584,7 +4588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4620,6 +4624,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4782,11 +4787,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="375567488"/>
-        <c:axId val="375569408"/>
+        <c:axId val="331937280"/>
+        <c:axId val="331939200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="375567488"/>
+        <c:axId val="331937280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,6 +4822,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4836,13 +4842,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375569408"/>
+        <c:crossAx val="331939200"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375569408"/>
+        <c:axId val="331939200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,6 +4891,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4907,13 +4914,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375567488"/>
+        <c:crossAx val="331937280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4934,7 +4942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4970,6 +4978,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="50"/>
@@ -5057,6 +5066,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5077,7 +5087,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5113,6 +5123,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="50"/>
@@ -5200,6 +5211,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5220,7 +5232,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5252,6 +5264,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5362,11 +5375,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="375716096"/>
-        <c:axId val="375808384"/>
+        <c:axId val="331963008"/>
+        <c:axId val="331989760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="375716096"/>
+        <c:axId val="331963008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,6 +5410,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5416,13 +5430,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375808384"/>
+        <c:crossAx val="331989760"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375808384"/>
+        <c:axId val="331989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,6 +5479,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5487,13 +5502,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375716096"/>
+        <c:crossAx val="331963008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5514,7 +5530,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5550,6 +5566,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5685,11 +5702,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="375719808"/>
-        <c:axId val="375734272"/>
+        <c:axId val="332089600"/>
+        <c:axId val="332091776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375719808"/>
+        <c:axId val="332089600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5720,6 +5737,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5739,13 +5757,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375734272"/>
+        <c:crossAx val="332091776"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375734272"/>
+        <c:axId val="332091776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5777,6 +5795,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -5799,13 +5818,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375719808"/>
+        <c:crossAx val="332089600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5826,7 +5846,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5862,6 +5882,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5971,11 +5992,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="375849728"/>
-        <c:axId val="375851648"/>
+        <c:axId val="332145792"/>
+        <c:axId val="332147712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375849728"/>
+        <c:axId val="332145792"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6006,6 +6027,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6025,13 +6047,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375851648"/>
+        <c:crossAx val="332147712"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375851648"/>
+        <c:axId val="332147712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6063,6 +6085,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -6085,13 +6108,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375849728"/>
+        <c:crossAx val="332145792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -6112,7 +6136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6279,11 +6303,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="303067520"/>
-        <c:axId val="303069440"/>
+        <c:axId val="330404608"/>
+        <c:axId val="330406528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="303067520"/>
+        <c:axId val="330404608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6326,13 +6350,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303069440"/>
+        <c:crossAx val="330406528"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303069440"/>
+        <c:axId val="330406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303067520"/>
+        <c:crossAx val="330404608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6426,7 +6450,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6625,11 +6649,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="218378240"/>
-        <c:axId val="218380160"/>
+        <c:axId val="330518912"/>
+        <c:axId val="330520832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218378240"/>
+        <c:axId val="330518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6672,13 +6696,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218380160"/>
+        <c:crossAx val="330520832"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218380160"/>
+        <c:axId val="330520832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218378240"/>
+        <c:crossAx val="330518912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6772,7 +6796,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6916,7 +6940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7064,7 +7088,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7211,11 +7235,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="303150592"/>
-        <c:axId val="303152512"/>
+        <c:axId val="330819456"/>
+        <c:axId val="330833920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303150592"/>
+        <c:axId val="330819456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7258,13 +7282,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303152512"/>
+        <c:crossAx val="330833920"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303152512"/>
+        <c:axId val="330833920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7330,7 +7354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303150592"/>
+        <c:crossAx val="330819456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7358,7 +7382,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7530,11 +7554,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="336827520"/>
-        <c:axId val="336829440"/>
+        <c:axId val="330872320"/>
+        <c:axId val="330874240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336827520"/>
+        <c:axId val="330872320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7577,13 +7601,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336829440"/>
+        <c:crossAx val="330874240"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336829440"/>
+        <c:axId val="330874240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7638,7 +7662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336827520"/>
+        <c:crossAx val="330872320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7666,7 +7690,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7812,11 +7836,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="374829056"/>
-        <c:axId val="374830976"/>
+        <c:axId val="330994048"/>
+        <c:axId val="330995968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="374829056"/>
+        <c:axId val="330994048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7859,13 +7883,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374830976"/>
+        <c:crossAx val="330995968"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374830976"/>
+        <c:axId val="330995968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7920,7 +7944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374829056"/>
+        <c:crossAx val="330994048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7948,7 +7972,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7984,6 +8008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8103,11 +8128,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="375596544"/>
-        <c:axId val="375598464"/>
+        <c:axId val="331831168"/>
+        <c:axId val="331853824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375596544"/>
+        <c:axId val="331831168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,6 +8155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -8149,13 +8175,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375598464"/>
+        <c:crossAx val="331853824"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375598464"/>
+        <c:axId val="331853824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8198,6 +8224,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8220,7 +8247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375596544"/>
+        <c:crossAx val="331831168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8229,7 +8256,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8539,11 +8566,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4029075" cy="2495550"/>
+    <xdr:ext cx="2981324" cy="2352674"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="492168205" name="Chart 9"/>
@@ -8563,12 +8590,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>933450</xdr:rowOff>
+      <xdr:rowOff>1181100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4029075" cy="2247900"/>
+    <xdr:ext cx="3209925" cy="1847850"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2071652728" name="Chart 10"/>
@@ -8588,12 +8615,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="4114800" cy="2552700"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="889138566" name="Chart 11"/>
@@ -8613,10 +8640,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4029075" cy="2495550"/>
     <xdr:graphicFrame macro="">
@@ -8639,9 +8666,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4029075" cy="2495550"/>
     <xdr:graphicFrame macro="">
@@ -8663,12 +8690,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9296400" cy="2790825"/>
+    <xdr:ext cx="5029200" cy="3181350"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="595532394" name="Chart 14"/>
@@ -8688,9 +8715,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4838700" cy="2990850"/>
@@ -8714,9 +8741,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4838700" cy="2990850"/>
     <xdr:graphicFrame macro="">
@@ -8740,7 +8767,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Administrator" refreshedDate="45016.82903252315" refreshedVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Administrator" refreshedDate="45879.652931249999" refreshedVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource ref="A7:BV37" sheet="01.DATA"/>
   </cacheSource>
@@ -11308,8 +11335,309 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="A46:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="A31:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="74">
+    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Số phút về sớm" fld="70" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="A60:E69" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="74">
+    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tên nhân viên" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="31">
+        <item x="10"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Phòng/ban" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" axis="axisPage" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="68" hier="0"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Tần suất đi muôn" fld="67" baseField="0"/>
+    <dataField name="Tổng thời gian đi muộn" fld="68" baseField="0"/>
+    <dataField name="Tần suất về sớm" fld="69" baseField="0"/>
+    <dataField name="Tổng thời gian về sớm" fld="70" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="J46:L50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="74">
     <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -11384,10 +11712,10 @@
     <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
     <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
@@ -11418,6 +11746,133 @@
     </i>
   </colItems>
   <dataFields count="2">
+    <dataField name="Tần suất đi muôn" fld="67" baseField="0"/>
+    <dataField name="Tổng thời gian đi muộn" fld="68" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" rowGrandTotals="0" compact="0" compactData="0">
+  <location ref="I1:M5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="74">
+    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="SUM of Tổng số lần vào trễ" fld="67" baseField="0"/>
+    <dataField name="SUM of Tổng số phút vào trễ" fld="68" baseField="0"/>
     <dataField name="SUM of Tổng số lần ra sớm" fld="69" baseField="0"/>
     <dataField name="SUM of Tổng số phút  ra sớm" fld="70" baseField="0"/>
   </dataFields>
@@ -11425,7 +11880,137 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="I16:M21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="74">
+    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="SUM of Tổng số lần vào trễ" fld="67" baseField="0"/>
+    <dataField name="SUM of Tổng số phút vào trễ" fld="68" baseField="0"/>
+    <dataField name="SUM of Tổng số lần ra sớm" fld="69" baseField="0"/>
+    <dataField name="SUM of Tổng số phút  ra sớm" fld="70" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
   <location ref="A74:E83" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="74">
@@ -11613,7 +12198,120 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="A23:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="74">
+    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Tần suất về sớm" fld="69" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
   <location ref="A9:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="74">
@@ -11726,9 +12424,122 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="A37:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="74">
+    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="SUM of Tổng số lần vào trễ" fld="67" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="A46:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="74">
     <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -11803,8 +12614,8 @@
     <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần vào trễ" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
@@ -11828,31 +12639,23 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
   </colItems>
-  <dataFields count="4">
-    <dataField name="Tần suất đi muôn" fld="67" baseField="0"/>
-    <dataField name="Tổng thời gian đi muộn" fld="68" baseField="0"/>
-    <dataField name="Tần suất về sớm" fld="69" baseField="0"/>
-    <dataField name="Tổng thời gian về sớm" fld="70" baseField="0"/>
+  <dataFields count="2">
+    <dataField name="SUM of Tổng số lần ra sớm" fld="69" baseField="0"/>
+    <dataField name="SUM of Tổng số phút  ra sớm" fld="70" baseField="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
   <location ref="A16:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="74">
@@ -11982,9 +12785,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="J46:L50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
+  <location ref="A37:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="74">
     <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -12061,8 +12864,8 @@
     <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
     <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
@@ -12076,128 +12879,6 @@
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Tần suất đi muôn" fld="67" baseField="0"/>
-    <dataField name="Tổng thời gian đi muộn" fld="68" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="I16:M21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="74">
-    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -12221,664 +12902,10 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="SUM of Tổng số lần vào trễ" fld="67" baseField="0"/>
-    <dataField name="SUM of Tổng số phút vào trễ" fld="68" baseField="0"/>
-    <dataField name="SUM of Tổng số lần ra sớm" fld="69" baseField="0"/>
-    <dataField name="SUM of Tổng số phút  ra sớm" fld="70" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="A23:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="74">
-    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Tần suất về sớm" fld="69" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="74">
-    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="SUM of Tổng số lần vào trễ" fld="67" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="A60:E69" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="74">
-    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tên nhân viên" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="31">
-        <item x="10"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="28"/>
-        <item x="13"/>
-        <item x="25"/>
-        <item x="17"/>
-        <item x="1"/>
-        <item x="23"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Phòng/ban" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" axis="axisPage" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="68" hier="0"/>
-  </pageFields>
-  <dataFields count="4">
     <dataField name="Tần suất đi muôn" fld="67" baseField="0"/>
     <dataField name="Tổng thời gian đi muộn" fld="68" baseField="0"/>
     <dataField name="Tần suất về sớm" fld="69" baseField="0"/>
     <dataField name="Tổng thời gian về sớm" fld="70" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" rowGrandTotals="0" compact="0" compactData="0">
-  <location ref="I1:M5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="74">
-    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" dataField="1" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="SUM of Tổng số lần vào trễ" fld="67" baseField="0"/>
-    <dataField name="SUM of Tổng số phút vào trễ" fld="68" baseField="0"/>
-    <dataField name="SUM of Tổng số lần ra sớm" fld="69" baseField="0"/>
-    <dataField name="SUM of Tổng số phút  ra sớm" fld="70" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02.Chart 7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="3" compact="0" compactData="0">
-  <location ref="A31:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="74">
-    <pivotField name="Mã NV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tên nhân viên" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Giới tính" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Phòng/ban" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Chức vụ" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="IN" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OUT" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out2" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out3" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out5" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out6" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out7" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out8" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out9" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out10" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out11" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out12" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out13" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out14" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out15" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out16" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out17" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out18" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out19" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out20" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out21" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out22" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out23" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out24" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out25" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out26" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out27" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out28" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out29" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out30" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="in31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="out31" compact="0" numFmtId="20" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần vào trễ" compact="0" numFmtId="43" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút vào trễ" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số lần ra sớm" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Tổng số phút  ra sớm" dataField="1" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Số phút về sớm" fld="70" baseField="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -13088,7 +13115,7 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
@@ -13115,19 +13142,19 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" customHeight="1">
       <c r="A1" s="95"/>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
       <c r="M1" s="97"/>
       <c r="N1" s="97"/>
       <c r="O1" s="97"/>
@@ -13137,21 +13164,21 @@
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1" thickBot="1">
       <c r="A2" s="95"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="234" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="235"/>
+      <c r="N2" s="231"/>
       <c r="O2" s="99">
         <f>'01.DATA'!E3</f>
         <v>12</v>
@@ -13222,10 +13249,10 @@
       </c>
       <c r="F5" s="96"/>
       <c r="G5" s="100"/>
-      <c r="H5" s="236" t="s">
+      <c r="H5" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="231"/>
+      <c r="I5" s="233"/>
       <c r="J5" s="103">
         <f>COUNTIF('01.DATA'!$E$8:$E$37,"Trưởng phòng")+COUNTIF('01.DATA'!$E$8:$E$37,"Phó phòng")</f>
         <v>3</v>
@@ -13257,10 +13284,10 @@
       </c>
       <c r="F6" s="96"/>
       <c r="G6" s="100"/>
-      <c r="H6" s="236" t="s">
+      <c r="H6" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="231"/>
+      <c r="I6" s="233"/>
       <c r="J6" s="103">
         <f>COUNTIF('01.DATA'!$E$8:$E$37,"Chuyên viên")+COUNTIF('01.DATA'!$E$8:$E$37,"Nhân viên")</f>
         <v>27</v>
@@ -13306,10 +13333,10 @@
     </row>
     <row r="8" spans="1:18" ht="21.75" customHeight="1">
       <c r="A8" s="100"/>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="231"/>
+      <c r="C8" s="233"/>
       <c r="D8" s="102"/>
       <c r="E8" s="103">
         <f>SUM(E5:E7)</f>
@@ -13317,20 +13344,20 @@
       </c>
       <c r="F8" s="96"/>
       <c r="G8" s="100"/>
-      <c r="H8" s="232" t="s">
+      <c r="H8" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="231"/>
+      <c r="I8" s="233"/>
       <c r="J8" s="103">
         <f>SUM(J5:J7)</f>
         <v>30</v>
       </c>
       <c r="K8" s="96"/>
       <c r="L8" s="92"/>
-      <c r="M8" s="240" t="s">
+      <c r="M8" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="231"/>
+      <c r="N8" s="233"/>
       <c r="O8" s="103">
         <f>SUM(O4:O7)</f>
         <v>30</v>
@@ -13365,26 +13392,26 @@
         <v>12</v>
       </c>
       <c r="C10" s="105"/>
-      <c r="D10" s="233" t="s">
+      <c r="D10" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="231"/>
+      <c r="E10" s="233"/>
       <c r="F10" s="105"/>
-      <c r="G10" s="233" t="s">
+      <c r="G10" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="231"/>
+      <c r="H10" s="233"/>
       <c r="I10" s="105"/>
-      <c r="J10" s="233" t="s">
+      <c r="J10" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="231"/>
+      <c r="K10" s="233"/>
       <c r="L10" s="105"/>
-      <c r="M10" s="233" t="s">
+      <c r="M10" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="231"/>
-      <c r="O10" s="231"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
       <c r="P10" s="105"/>
       <c r="Q10" s="92"/>
       <c r="R10" s="92"/>
@@ -13416,30 +13443,30 @@
         <v>20</v>
       </c>
       <c r="C12" s="108"/>
-      <c r="D12" s="230">
+      <c r="D12" s="239">
         <f>'02.Chart'!$K$20</f>
         <v>228</v>
       </c>
-      <c r="E12" s="231"/>
+      <c r="E12" s="233"/>
       <c r="F12" s="108"/>
-      <c r="G12" s="230">
+      <c r="G12" s="239">
         <f>'02.Chart'!$L$20</f>
         <v>27</v>
       </c>
-      <c r="H12" s="231"/>
+      <c r="H12" s="233"/>
       <c r="I12" s="108"/>
-      <c r="J12" s="230">
+      <c r="J12" s="239">
         <f>'02.Chart'!$M$20</f>
         <v>288</v>
       </c>
-      <c r="K12" s="231"/>
+      <c r="K12" s="233"/>
       <c r="L12" s="108"/>
-      <c r="M12" s="230">
+      <c r="M12" s="239">
         <f>'02.Chart'!$N$20</f>
         <v>0</v>
       </c>
-      <c r="N12" s="231"/>
-      <c r="O12" s="231"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="233"/>
       <c r="P12" s="105"/>
       <c r="Q12" s="92"/>
       <c r="R12" s="92"/>
@@ -18120,12 +18147,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:L2"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="M8:N8"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="B8:C8"/>
@@ -18135,6 +18156,12 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18149,11 +18176,11 @@
   <dimension ref="A1:BO148"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="J64" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:I1"/>
+      <selection pane="bottomRight" activeCell="AI77" sqref="AI77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18189,16 +18216,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="47.25" customHeight="1">
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
       <c r="J1" s="117"/>
       <c r="K1" s="117"/>
       <c r="L1" s="117"/>
@@ -18330,18 +18357,18 @@
     </row>
     <row r="3" spans="1:67" s="125" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="123"/>
-      <c r="B3" s="282" t="s">
+      <c r="B3" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
       <c r="N3" s="124"/>
@@ -18398,118 +18425,118 @@
       <c r="BM3" s="124"/>
     </row>
     <row r="4" spans="1:67" ht="22.5" customHeight="1">
-      <c r="B4" s="283" t="s">
+      <c r="B4" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="286" t="s">
+      <c r="C4" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="286" t="s">
+      <c r="D4" s="246" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="249" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="292" t="s">
+      <c r="F4" s="252" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="278" t="s">
+      <c r="G4" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="295" t="s">
+      <c r="H4" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="278" t="s">
+      <c r="I4" s="255" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="298" t="s">
+      <c r="J4" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="298"/>
-      <c r="Z4" s="298"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298"/>
-      <c r="AF4" s="298"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="298"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="298"/>
-      <c r="AK4" s="298"/>
-      <c r="AL4" s="298"/>
-      <c r="AM4" s="298"/>
-      <c r="AN4" s="298"/>
-      <c r="AO4" s="278" t="s">
+      <c r="K4" s="261"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="261"/>
+      <c r="Y4" s="261"/>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="261"/>
+      <c r="AB4" s="261"/>
+      <c r="AC4" s="261"/>
+      <c r="AD4" s="261"/>
+      <c r="AE4" s="261"/>
+      <c r="AF4" s="261"/>
+      <c r="AG4" s="261"/>
+      <c r="AH4" s="261"/>
+      <c r="AI4" s="261"/>
+      <c r="AJ4" s="261"/>
+      <c r="AK4" s="261"/>
+      <c r="AL4" s="261"/>
+      <c r="AM4" s="261"/>
+      <c r="AN4" s="261"/>
+      <c r="AO4" s="255" t="s">
         <v>130</v>
       </c>
-      <c r="AP4" s="265" t="s">
+      <c r="AP4" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="AQ4" s="280"/>
-      <c r="AR4" s="280"/>
-      <c r="AS4" s="280"/>
-      <c r="AT4" s="280"/>
-      <c r="AU4" s="280"/>
-      <c r="AV4" s="280"/>
-      <c r="AW4" s="280"/>
-      <c r="AX4" s="280"/>
-      <c r="AY4" s="280"/>
-      <c r="AZ4" s="280"/>
-      <c r="BA4" s="280"/>
-      <c r="BB4" s="280"/>
-      <c r="BC4" s="274" t="s">
+      <c r="AQ4" s="263"/>
+      <c r="AR4" s="263"/>
+      <c r="AS4" s="263"/>
+      <c r="AT4" s="263"/>
+      <c r="AU4" s="263"/>
+      <c r="AV4" s="263"/>
+      <c r="AW4" s="263"/>
+      <c r="AX4" s="263"/>
+      <c r="AY4" s="263"/>
+      <c r="AZ4" s="263"/>
+      <c r="BA4" s="263"/>
+      <c r="BB4" s="263"/>
+      <c r="BC4" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="BD4" s="274" t="s">
+      <c r="BD4" s="264" t="s">
         <v>133</v>
       </c>
-      <c r="BE4" s="274" t="s">
+      <c r="BE4" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="BF4" s="263" t="s">
+      <c r="BF4" s="269" t="s">
         <v>135</v>
       </c>
-      <c r="BG4" s="264"/>
-      <c r="BH4" s="264"/>
-      <c r="BI4" s="264"/>
-      <c r="BJ4" s="264"/>
-      <c r="BK4" s="264"/>
-      <c r="BL4" s="265" t="s">
+      <c r="BG4" s="270"/>
+      <c r="BH4" s="270"/>
+      <c r="BI4" s="270"/>
+      <c r="BJ4" s="270"/>
+      <c r="BK4" s="270"/>
+      <c r="BL4" s="262" t="s">
         <v>136</v>
       </c>
-      <c r="BM4" s="268" t="s">
+      <c r="BM4" s="273" t="s">
         <v>137</v>
       </c>
-      <c r="BN4" s="271" t="s">
+      <c r="BN4" s="276" t="s">
         <v>138</v>
       </c>
       <c r="BO4" s="138"/>
     </row>
     <row r="5" spans="1:67" ht="26.25" customHeight="1">
-      <c r="B5" s="284"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="279"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="256"/>
       <c r="J5" s="139">
         <f>A2</f>
         <v>43709</v>
@@ -18634,82 +18661,82 @@
         <f>IF(AM5="","",IF(DAY(AM5+1)=DAY(J5),"",AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="279"/>
-      <c r="AP5" s="253" t="s">
+      <c r="AO5" s="256"/>
+      <c r="AP5" s="267" t="s">
         <v>139</v>
       </c>
-      <c r="AQ5" s="253" t="s">
+      <c r="AQ5" s="267" t="s">
         <v>140</v>
       </c>
-      <c r="AR5" s="253" t="s">
+      <c r="AR5" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="AS5" s="253" t="s">
+      <c r="AS5" s="267" t="s">
         <v>142</v>
       </c>
-      <c r="AT5" s="253" t="s">
+      <c r="AT5" s="267" t="s">
         <v>143</v>
       </c>
-      <c r="AU5" s="253" t="s">
+      <c r="AU5" s="267" t="s">
         <v>144</v>
       </c>
-      <c r="AV5" s="253" t="s">
+      <c r="AV5" s="267" t="s">
         <v>145</v>
       </c>
-      <c r="AW5" s="253" t="s">
+      <c r="AW5" s="267" t="s">
         <v>146</v>
       </c>
-      <c r="AX5" s="253" t="s">
+      <c r="AX5" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="AY5" s="253" t="s">
+      <c r="AY5" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="AZ5" s="253" t="s">
+      <c r="AZ5" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="BA5" s="253" t="s">
+      <c r="BA5" s="267" t="s">
         <v>150</v>
       </c>
-      <c r="BB5" s="255" t="s">
+      <c r="BB5" s="291" t="s">
         <v>151</v>
       </c>
-      <c r="BC5" s="275"/>
-      <c r="BD5" s="275"/>
-      <c r="BE5" s="275"/>
-      <c r="BF5" s="241" t="s">
+      <c r="BC5" s="265"/>
+      <c r="BD5" s="265"/>
+      <c r="BE5" s="265"/>
+      <c r="BF5" s="279" t="s">
         <v>152</v>
       </c>
-      <c r="BG5" s="241" t="s">
+      <c r="BG5" s="279" t="s">
         <v>153</v>
       </c>
-      <c r="BH5" s="241" t="s">
+      <c r="BH5" s="279" t="s">
         <v>154</v>
       </c>
-      <c r="BI5" s="241" t="s">
+      <c r="BI5" s="279" t="s">
         <v>155</v>
       </c>
-      <c r="BJ5" s="241" t="s">
+      <c r="BJ5" s="279" t="s">
         <v>156</v>
       </c>
-      <c r="BK5" s="277" t="s">
+      <c r="BK5" s="280" t="s">
         <v>157</v>
       </c>
-      <c r="BL5" s="266"/>
-      <c r="BM5" s="269"/>
-      <c r="BN5" s="272"/>
+      <c r="BL5" s="271"/>
+      <c r="BM5" s="274"/>
+      <c r="BN5" s="277"/>
       <c r="BO5" s="138"/>
     </row>
     <row r="6" spans="1:67" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="126"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="291"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="242"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="257"/>
       <c r="J6" s="140" t="str">
         <f>CHOOSE(WEEKDAY(J5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")</f>
         <v xml:space="preserve">  CN</v>
@@ -18834,50 +18861,50 @@
         <f>IF(AN5&lt;&gt;"",CHOOSE(WEEKDAY(AN5),"  CN","  T. hai","  T. ba","  T. tư","  T. năm","  T. sáu","  T. bảy")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO6" s="242"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
-      <c r="AX6" s="254"/>
-      <c r="AY6" s="254"/>
-      <c r="AZ6" s="254"/>
-      <c r="BA6" s="254"/>
-      <c r="BB6" s="256"/>
-      <c r="BC6" s="276"/>
-      <c r="BD6" s="276"/>
-      <c r="BE6" s="276"/>
-      <c r="BF6" s="242"/>
-      <c r="BG6" s="242"/>
-      <c r="BH6" s="242"/>
-      <c r="BI6" s="242"/>
-      <c r="BJ6" s="242"/>
-      <c r="BK6" s="267"/>
-      <c r="BL6" s="267"/>
-      <c r="BM6" s="270"/>
-      <c r="BN6" s="273"/>
+      <c r="AO6" s="257"/>
+      <c r="AP6" s="268"/>
+      <c r="AQ6" s="268"/>
+      <c r="AR6" s="268"/>
+      <c r="AS6" s="268"/>
+      <c r="AT6" s="268"/>
+      <c r="AU6" s="268"/>
+      <c r="AV6" s="268"/>
+      <c r="AW6" s="268"/>
+      <c r="AX6" s="268"/>
+      <c r="AY6" s="268"/>
+      <c r="AZ6" s="268"/>
+      <c r="BA6" s="268"/>
+      <c r="BB6" s="292"/>
+      <c r="BC6" s="266"/>
+      <c r="BD6" s="266"/>
+      <c r="BE6" s="266"/>
+      <c r="BF6" s="257"/>
+      <c r="BG6" s="257"/>
+      <c r="BH6" s="257"/>
+      <c r="BI6" s="257"/>
+      <c r="BJ6" s="257"/>
+      <c r="BK6" s="272"/>
+      <c r="BL6" s="272"/>
+      <c r="BM6" s="275"/>
+      <c r="BN6" s="278"/>
       <c r="BO6" s="138"/>
     </row>
     <row r="7" spans="1:67" s="128" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="127">
         <v>0</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="293" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="258"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261" t="s">
+      <c r="C7" s="294"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="297" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="262"/>
+      <c r="I7" s="298"/>
       <c r="J7" s="141">
         <v>32.000000000000064</v>
       </c>
@@ -23474,18 +23501,18 @@
       <c r="A37" s="127">
         <v>0</v>
       </c>
-      <c r="B37" s="243" t="s">
+      <c r="B37" s="281" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="249"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="247" t="s">
+      <c r="C37" s="287"/>
+      <c r="D37" s="282"/>
+      <c r="E37" s="282"/>
+      <c r="F37" s="282"/>
+      <c r="G37" s="288"/>
+      <c r="H37" s="285" t="s">
         <v>159</v>
       </c>
-      <c r="I37" s="248"/>
+      <c r="I37" s="286"/>
       <c r="J37" s="167">
         <v>0</v>
       </c>
@@ -24716,18 +24743,18 @@
       <c r="A45" s="127">
         <v>0</v>
       </c>
-      <c r="B45" s="243" t="s">
+      <c r="B45" s="281" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="249"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="250"/>
-      <c r="H45" s="247" t="s">
+      <c r="C45" s="287"/>
+      <c r="D45" s="282"/>
+      <c r="E45" s="282"/>
+      <c r="F45" s="282"/>
+      <c r="G45" s="288"/>
+      <c r="H45" s="285" t="s">
         <v>159</v>
       </c>
-      <c r="I45" s="248"/>
+      <c r="I45" s="286"/>
       <c r="J45" s="167">
         <v>48.000000000000092</v>
       </c>
@@ -28496,18 +28523,18 @@
       <c r="A69" s="127">
         <v>0</v>
       </c>
-      <c r="B69" s="243" t="s">
+      <c r="B69" s="281" t="s">
         <v>286</v>
       </c>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
-      <c r="E69" s="249"/>
-      <c r="F69" s="249"/>
-      <c r="G69" s="250"/>
-      <c r="H69" s="247" t="s">
+      <c r="C69" s="287"/>
+      <c r="D69" s="287"/>
+      <c r="E69" s="287"/>
+      <c r="F69" s="287"/>
+      <c r="G69" s="288"/>
+      <c r="H69" s="285" t="s">
         <v>159</v>
       </c>
-      <c r="I69" s="248"/>
+      <c r="I69" s="286"/>
       <c r="J69" s="167">
         <v>0</v>
       </c>
@@ -28818,18 +28845,18 @@
       <c r="A71" s="127">
         <v>0</v>
       </c>
-      <c r="B71" s="243" t="s">
+      <c r="B71" s="281" t="s">
         <v>298</v>
       </c>
-      <c r="C71" s="251"/>
-      <c r="D71" s="251"/>
-      <c r="E71" s="251"/>
-      <c r="F71" s="251"/>
-      <c r="G71" s="252"/>
-      <c r="H71" s="247" t="s">
+      <c r="C71" s="289"/>
+      <c r="D71" s="289"/>
+      <c r="E71" s="289"/>
+      <c r="F71" s="289"/>
+      <c r="G71" s="290"/>
+      <c r="H71" s="285" t="s">
         <v>159</v>
       </c>
-      <c r="I71" s="248"/>
+      <c r="I71" s="286"/>
       <c r="J71" s="167">
         <v>8.000000000000016</v>
       </c>
@@ -29943,18 +29970,18 @@
       <c r="A78" s="127">
         <v>0</v>
       </c>
-      <c r="B78" s="243" t="s">
+      <c r="B78" s="281" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="244"/>
-      <c r="D78" s="244"/>
-      <c r="E78" s="244"/>
-      <c r="F78" s="245"/>
-      <c r="G78" s="246"/>
-      <c r="H78" s="247" t="s">
+      <c r="C78" s="282"/>
+      <c r="D78" s="282"/>
+      <c r="E78" s="282"/>
+      <c r="F78" s="283"/>
+      <c r="G78" s="284"/>
+      <c r="H78" s="285" t="s">
         <v>159</v>
       </c>
-      <c r="I78" s="248"/>
+      <c r="I78" s="286"/>
       <c r="J78" s="167">
         <v>0</v>
       </c>
@@ -35126,25 +35153,22 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:AN4"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="AP4:BB4"/>
-    <mergeCell ref="BC4:BC6"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="BF4:BK4"/>
     <mergeCell ref="BL4:BL6"/>
     <mergeCell ref="BM4:BM6"/>
@@ -35161,22 +35185,25 @@
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BF5:BF6"/>
     <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="AP4:BB4"/>
+    <mergeCell ref="BC4:BC6"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:AN4"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:AN80">
     <cfRule type="expression" dxfId="31" priority="26">
@@ -35323,7 +35350,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -59401,8 +59428,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
